--- a/dist/document/dest/2020/10/doctors/22.xlsx
+++ b/dist/document/dest/2020/10/doctors/22.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
-        <v>12100</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>260</v>
       </c>
-      <c r="C3" s="1">
-        <v>2145000</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>15</v>
       </c>
-      <c r="C4" s="1">
-        <v>113850</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>190</v>
       </c>
-      <c r="C5" s="1">
-        <v>655500</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>31</v>
       </c>
-      <c r="C6" s="1">
-        <v>8618</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>12</v>
       </c>
-      <c r="C7" s="1">
-        <v>138840</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>200</v>
       </c>
-      <c r="C8" s="1">
-        <v>758000</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>440</v>
       </c>
-      <c r="C9" s="1">
-        <v>759000</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>135</v>
       </c>
-      <c r="C10" s="1">
-        <v>1039500</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>1119</v>
       </c>
-      <c r="C11" s="1">
-        <v>3345810</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>110</v>
       </c>
-      <c r="C12" s="1">
-        <v>834900</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>60</v>
       </c>
-      <c r="C13" s="1">
-        <v>196500</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>1130</v>
       </c>
-      <c r="C14" s="1">
-        <v>2469050</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>7852</v>
       </c>
-      <c r="C15" s="1">
-        <v>20258160</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>118</v>
       </c>
-      <c r="C16" s="1">
-        <v>1654950</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>129</v>
       </c>
-      <c r="C17" s="1">
-        <v>929445</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>7</v>
       </c>
-      <c r="C18" s="1">
-        <v>3822</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>10</v>
       </c>
-      <c r="C19" s="1">
-        <v>82500</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>7</v>
       </c>
-      <c r="C20" s="1">
-        <v>17710</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>40</v>
       </c>
-      <c r="C21" s="1">
-        <v>230000</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>404</v>
       </c>
-      <c r="C22" s="1">
-        <v>3999600</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>30</v>
       </c>
-      <c r="C23" s="1">
-        <v>103500</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>43</v>
       </c>
-      <c r="C24" s="1">
-        <v>135880</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>15</v>
       </c>
-      <c r="C25" s="1">
-        <v>161700</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>201</v>
       </c>
-      <c r="C26" s="1">
-        <v>727620</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>372</v>
       </c>
-      <c r="C27" s="1">
-        <v>4501200</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>63</v>
       </c>
-      <c r="C28" s="1">
-        <v>217350</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>45</v>
       </c>
-      <c r="C29" s="1">
-        <v>184950</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>5</v>
       </c>
-      <c r="C30" s="1">
-        <v>251000</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>187</v>
       </c>
-      <c r="C31" s="1">
-        <v>580635</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -734,9 +644,6 @@
       <c r="B32" s="1">
         <v>7</v>
       </c>
-      <c r="C32" s="1">
-        <v>46060</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -745,9 +652,6 @@
       <c r="B33" s="1">
         <v>328</v>
       </c>
-      <c r="C33" s="1">
-        <v>2146760</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -756,9 +660,6 @@
       <c r="B34" s="1">
         <v>14</v>
       </c>
-      <c r="C34" s="1">
-        <v>15260</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -767,9 +668,6 @@
       <c r="B35" s="1">
         <v>228</v>
       </c>
-      <c r="C35" s="1">
-        <v>760380</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -778,9 +676,6 @@
       <c r="B36" s="1">
         <v>27</v>
       </c>
-      <c r="C36" s="1">
-        <v>155250</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -789,9 +684,6 @@
       <c r="B37" s="1">
         <v>20</v>
       </c>
-      <c r="C37" s="1">
-        <v>195800</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -800,9 +692,6 @@
       <c r="B38" s="1">
         <v>198</v>
       </c>
-      <c r="C38" s="1">
-        <v>1306800</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -811,9 +700,6 @@
       <c r="B39" s="1">
         <v>2326</v>
       </c>
-      <c r="C39" s="1">
-        <v>24306700</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -822,9 +708,6 @@
       <c r="B40" s="1">
         <v>23</v>
       </c>
-      <c r="C40" s="1">
-        <v>366850</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -833,9 +716,6 @@
       <c r="B41" s="1">
         <v>392</v>
       </c>
-      <c r="C41" s="1">
-        <v>450800</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -844,9 +724,6 @@
       <c r="B42" s="1">
         <v>2</v>
       </c>
-      <c r="C42" s="1">
-        <v>66000</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -855,9 +732,6 @@
       <c r="B43" s="1">
         <v>255</v>
       </c>
-      <c r="C43" s="1">
-        <v>1173000</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -866,9 +740,6 @@
       <c r="B44" s="1">
         <v>300</v>
       </c>
-      <c r="C44" s="1">
-        <v>1716000</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -877,9 +748,6 @@
       <c r="B45" s="1">
         <v>12</v>
       </c>
-      <c r="C45" s="1">
-        <v>50640</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -888,9 +756,6 @@
       <c r="B46" s="1">
         <v>2100</v>
       </c>
-      <c r="C46" s="1">
-        <v>5313000</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -899,9 +764,6 @@
       <c r="B47" s="1">
         <v>1888</v>
       </c>
-      <c r="C47" s="1">
-        <v>7599200</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -910,9 +772,6 @@
       <c r="B48" s="1">
         <v>30</v>
       </c>
-      <c r="C48" s="1">
-        <v>103500</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -921,9 +780,6 @@
       <c r="B49" s="1">
         <v>736</v>
       </c>
-      <c r="C49" s="1">
-        <v>2623840</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -932,9 +788,6 @@
       <c r="B50" s="1">
         <v>268</v>
       </c>
-      <c r="C50" s="1">
-        <v>1017060</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -943,9 +796,6 @@
       <c r="B51" s="1">
         <v>754</v>
       </c>
-      <c r="C51" s="1">
-        <v>1161160</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -954,9 +804,6 @@
       <c r="B52" s="1">
         <v>898</v>
       </c>
-      <c r="C52" s="1">
-        <v>13038960</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -965,9 +812,6 @@
       <c r="B53" s="1">
         <v>314</v>
       </c>
-      <c r="C53" s="1">
-        <v>1171220</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -976,9 +820,6 @@
       <c r="B54" s="1">
         <v>210</v>
       </c>
-      <c r="C54" s="1">
-        <v>748650</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -987,9 +828,6 @@
       <c r="B55" s="1">
         <v>210</v>
       </c>
-      <c r="C55" s="1">
-        <v>2457000</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -998,9 +836,6 @@
       <c r="B56" s="1">
         <v>490</v>
       </c>
-      <c r="C56" s="1">
-        <v>2761150</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -1009,9 +844,6 @@
       <c r="B57" s="1">
         <v>450</v>
       </c>
-      <c r="C57" s="1">
-        <v>3465000</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -1020,9 +852,6 @@
       <c r="B58" s="1">
         <v>17</v>
       </c>
-      <c r="C58" s="1">
-        <v>19635</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -1031,9 +860,6 @@
       <c r="B59" s="1">
         <v>10</v>
       </c>
-      <c r="C59" s="1">
-        <v>119400</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
@@ -1042,9 +868,6 @@
       <c r="B60" s="1">
         <v>4415</v>
       </c>
-      <c r="C60" s="1">
-        <v>33024200</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
@@ -1053,9 +876,6 @@
       <c r="B61" s="1">
         <v>135</v>
       </c>
-      <c r="C61" s="1">
-        <v>787050</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
@@ -1064,9 +884,6 @@
       <c r="B62" s="1">
         <v>28</v>
       </c>
-      <c r="C62" s="1">
-        <v>823760</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
@@ -1075,9 +892,6 @@
       <c r="B63" s="1">
         <v>28</v>
       </c>
-      <c r="C63" s="1">
-        <v>431200</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
@@ -1086,9 +900,6 @@
       <c r="B64" s="1">
         <v>522</v>
       </c>
-      <c r="C64" s="1">
-        <v>1680840</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
@@ -1097,9 +908,6 @@
       <c r="B65" s="1">
         <v>166</v>
       </c>
-      <c r="C65" s="1">
-        <v>801780</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
@@ -1108,9 +916,6 @@
       <c r="B66" s="1">
         <v>115</v>
       </c>
-      <c r="C66" s="1">
-        <v>1454750</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
@@ -1119,9 +924,6 @@
       <c r="B67" s="1">
         <v>759</v>
       </c>
-      <c r="C67" s="1">
-        <v>1609080</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -1130,9 +932,6 @@
       <c r="B68" s="1">
         <v>152</v>
       </c>
-      <c r="C68" s="1">
-        <v>1170400</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -1141,9 +940,6 @@
       <c r="B69" s="1">
         <v>30</v>
       </c>
-      <c r="C69" s="1">
-        <v>63900</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
@@ -1152,9 +948,6 @@
       <c r="B70" s="1">
         <v>24</v>
       </c>
-      <c r="C70" s="1">
-        <v>53520</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
@@ -1163,9 +956,6 @@
       <c r="B71" s="1">
         <v>581</v>
       </c>
-      <c r="C71" s="1">
-        <v>3898510</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -1174,9 +964,6 @@
       <c r="B72" s="1">
         <v>603</v>
       </c>
-      <c r="C72" s="1">
-        <v>2427075</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -1185,9 +972,6 @@
       <c r="B73" s="1">
         <v>65</v>
       </c>
-      <c r="C73" s="1">
-        <v>822250</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
@@ -1196,9 +980,6 @@
       <c r="B74" s="1">
         <v>1459</v>
       </c>
-      <c r="C74" s="1">
-        <v>6711400</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
@@ -1207,9 +988,6 @@
       <c r="B75" s="1">
         <v>20</v>
       </c>
-      <c r="C75" s="1">
-        <v>100000</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
@@ -1218,9 +996,6 @@
       <c r="B76" s="1">
         <v>490</v>
       </c>
-      <c r="C76" s="1">
-        <v>5336100</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
@@ -1229,9 +1004,6 @@
       <c r="B77" s="1">
         <v>2</v>
       </c>
-      <c r="C77" s="1">
-        <v>3140</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
@@ -1240,9 +1012,6 @@
       <c r="B78" s="1">
         <v>50</v>
       </c>
-      <c r="C78" s="1">
-        <v>50000</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
@@ -1251,9 +1020,6 @@
       <c r="B79" s="1">
         <v>92</v>
       </c>
-      <c r="C79" s="1">
-        <v>189980</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
@@ -1262,9 +1028,6 @@
       <c r="B80" s="1">
         <v>2012</v>
       </c>
-      <c r="C80" s="1">
-        <v>10180720</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
@@ -1273,9 +1036,6 @@
       <c r="B81" s="1">
         <v>1</v>
       </c>
-      <c r="C81" s="1">
-        <v>165000</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
@@ -1284,9 +1044,6 @@
       <c r="B82" s="1">
         <v>136</v>
       </c>
-      <c r="C82" s="1">
-        <v>453560</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
@@ -1295,9 +1052,6 @@
       <c r="B83" s="1">
         <v>108</v>
       </c>
-      <c r="C83" s="1">
-        <v>4039200</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
@@ -1306,9 +1060,6 @@
       <c r="B84" s="1">
         <v>210</v>
       </c>
-      <c r="C84" s="1">
-        <v>1617000</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
@@ -1317,9 +1068,6 @@
       <c r="B85" s="1">
         <v>240</v>
       </c>
-      <c r="C85" s="1">
-        <v>2217600</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
@@ -1328,9 +1076,6 @@
       <c r="B86" s="1">
         <v>270</v>
       </c>
-      <c r="C86" s="1">
-        <v>1930500</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
@@ -1339,9 +1084,6 @@
       <c r="B87" s="1">
         <v>492</v>
       </c>
-      <c r="C87" s="1">
-        <v>2263200</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
@@ -1350,9 +1092,6 @@
       <c r="B88" s="1">
         <v>1</v>
       </c>
-      <c r="C88" s="1">
-        <v>13700</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
@@ -1361,9 +1100,6 @@
       <c r="B89" s="1">
         <v>1116</v>
       </c>
-      <c r="C89" s="1">
-        <v>9698040</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
@@ -1372,9 +1108,6 @@
       <c r="B90" s="1">
         <v>178</v>
       </c>
-      <c r="C90" s="1">
-        <v>962090</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
@@ -1383,9 +1116,6 @@
       <c r="B91" s="1">
         <v>10</v>
       </c>
-      <c r="C91" s="1">
-        <v>43000</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
@@ -1394,9 +1124,6 @@
       <c r="B92" s="1">
         <v>236</v>
       </c>
-      <c r="C92" s="1">
-        <v>2076800</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
@@ -1405,9 +1132,6 @@
       <c r="B93" s="1">
         <v>15</v>
       </c>
-      <c r="C93" s="1">
-        <v>313050</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
@@ -1416,9 +1140,6 @@
       <c r="B94" s="1">
         <v>15</v>
       </c>
-      <c r="C94" s="1">
-        <v>12285</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
@@ -1427,9 +1148,6 @@
       <c r="B95" s="1">
         <v>90</v>
       </c>
-      <c r="C95" s="1">
-        <v>3465000</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
@@ -1438,9 +1156,6 @@
       <c r="B96" s="1">
         <v>2036</v>
       </c>
-      <c r="C96" s="1">
-        <v>22172040</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
@@ -1449,9 +1164,6 @@
       <c r="B97" s="1">
         <v>160</v>
       </c>
-      <c r="C97" s="1">
-        <v>110400</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
@@ -1460,9 +1172,6 @@
       <c r="B98" s="1">
         <v>30</v>
       </c>
-      <c r="C98" s="1">
-        <v>120750</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
@@ -1471,9 +1180,6 @@
       <c r="B99" s="1">
         <v>367</v>
       </c>
-      <c r="C99" s="1">
-        <v>2785530</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
@@ -1482,9 +1188,6 @@
       <c r="B100" s="1">
         <v>392</v>
       </c>
-      <c r="C100" s="1">
-        <v>382200</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
@@ -1493,9 +1196,6 @@
       <c r="B101" s="1">
         <v>58</v>
       </c>
-      <c r="C101" s="1">
-        <v>149060</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
@@ -1504,9 +1204,6 @@
       <c r="B102" s="1">
         <v>14</v>
       </c>
-      <c r="C102" s="1">
-        <v>22540</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
@@ -1515,9 +1212,6 @@
       <c r="B103" s="1">
         <v>722</v>
       </c>
-      <c r="C103" s="1">
-        <v>2490900</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
@@ -1526,9 +1220,6 @@
       <c r="B104" s="1">
         <v>720</v>
       </c>
-      <c r="C104" s="1">
-        <v>1407600</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
@@ -1537,9 +1228,6 @@
       <c r="B105" s="1">
         <v>448</v>
       </c>
-      <c r="C105" s="1">
-        <v>2033920</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
@@ -1548,9 +1236,6 @@
       <c r="B106" s="1">
         <v>35</v>
       </c>
-      <c r="C106" s="1">
-        <v>134050</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
@@ -1559,9 +1244,6 @@
       <c r="B107" s="1">
         <v>520</v>
       </c>
-      <c r="C107" s="1">
-        <v>1778400</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
@@ -1570,9 +1252,6 @@
       <c r="B108" s="1">
         <v>424</v>
       </c>
-      <c r="C108" s="1">
-        <v>7648960</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
@@ -1581,9 +1260,6 @@
       <c r="B109" s="1">
         <v>210</v>
       </c>
-      <c r="C109" s="1">
-        <v>1801800</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
@@ -1592,9 +1268,6 @@
       <c r="B110" s="1">
         <v>124</v>
       </c>
-      <c r="C110" s="1">
-        <v>2318800</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
@@ -1603,9 +1276,6 @@
       <c r="B111" s="1">
         <v>7</v>
       </c>
-      <c r="C111" s="1">
-        <v>61600</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
@@ -1614,9 +1284,6 @@
       <c r="B112" s="1">
         <v>30</v>
       </c>
-      <c r="C112" s="1">
-        <v>18300</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
@@ -1625,9 +1292,6 @@
       <c r="B113" s="1">
         <v>20</v>
       </c>
-      <c r="C113" s="1">
-        <v>1390000</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
@@ -1636,9 +1300,6 @@
       <c r="B114" s="1">
         <v>675</v>
       </c>
-      <c r="C114" s="1">
-        <v>3260250</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
@@ -1647,9 +1308,6 @@
       <c r="B115" s="1">
         <v>60</v>
       </c>
-      <c r="C115" s="1">
-        <v>456900</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
@@ -1658,9 +1316,6 @@
       <c r="B116" s="1">
         <v>16</v>
       </c>
-      <c r="C116" s="1">
-        <v>196800</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
@@ -1669,9 +1324,6 @@
       <c r="B117" s="1">
         <v>15</v>
       </c>
-      <c r="C117" s="1">
-        <v>123420</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
@@ -1681,7 +1333,7 @@
         <v>47688</v>
       </c>
       <c r="C118" s="1">
-        <v>272625665</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/22.xlsx
+++ b/dist/document/dest/2020/10/doctors/22.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C441"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -404,941 +404,4842 @@
       <c r="B2" s="1">
         <v>2</v>
       </c>
+      <c r="C2" s="1">
+        <v>12100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Alcomet (Metadoxine 500mg)</v>
+        <v>Albenca 400mg (Albendazole)</v>
       </c>
       <c r="B3" s="1">
-        <v>260</v>
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6050</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Aleradin (Desloratadine 5mg)</v>
+        <v>Albenca 400mg (Albendazole)</v>
       </c>
       <c r="B4" s="1">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6050</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
+        <v>Albenca 400mg (Albendazole)</v>
       </c>
       <c r="B5" s="1">
-        <v>190</v>
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6050</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Amitriptyline (Elavil 25)</v>
+        <v>Alcomet (Metadoxine 500mg)</v>
       </c>
       <c r="B6" s="1">
-        <v>31</v>
+        <v>120</v>
+      </c>
+      <c r="C6" s="1">
+        <v>990000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Aprovel (Irbesartan 150mg)</v>
+        <v>Alphachymotrypsin BVP 8400</v>
       </c>
       <c r="B7" s="1">
-        <v>12</v>
+        <v>60</v>
+      </c>
+      <c r="C7" s="1">
+        <v>138000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Arcalion (Sulbutiamine 200mg)</v>
+        <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
       </c>
       <c r="B8" s="1">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C8" s="1">
+        <v>103500</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Arthur (Trimebutine 200mg)</v>
+        <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
       </c>
       <c r="B9" s="1">
-        <v>440</v>
+        <v>40</v>
+      </c>
+      <c r="C9" s="1">
+        <v>138000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Atorcal 20mg (Atorvastatin)</v>
+        <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
       </c>
       <c r="B10" s="1">
-        <v>135</v>
+        <v>40</v>
+      </c>
+      <c r="C10" s="1">
+        <v>138000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Azukon MR (Gliclazide B.P 30mg)</v>
+        <v>Amitriptyline (Elavil 25)</v>
       </c>
       <c r="B11" s="1">
-        <v>1119</v>
+        <v>19</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5282</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
+        <v>Amlor 5mg Pfizer (Amlodipine)</v>
       </c>
       <c r="B12" s="1">
-        <v>110</v>
+        <v>14</v>
+      </c>
+      <c r="C12" s="1">
+        <v>116900</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Be-Stedy 16 (Betahistine 16mg)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B13" s="1">
-        <v>60</v>
+        <v>90</v>
+      </c>
+      <c r="C13" s="1">
+        <v>517500</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Bonsartine (Losartan 25mg)</v>
+        <v>Apbezo (Rabeprazole 20mg)</v>
       </c>
       <c r="B14" s="1">
-        <v>1130</v>
+        <v>90</v>
+      </c>
+      <c r="C14" s="1">
+        <v>742500</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Bustidin (Trimetazidin 20mg)</v>
+        <v>Aprovel (Irbesartan 150mg)</v>
       </c>
       <c r="B15" s="1">
-        <v>7852</v>
+        <v>30</v>
+      </c>
+      <c r="C15" s="1">
+        <v>347100</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Cadigrel (Clopidogrel 75mg)</v>
+        <v>Arcalion (Sulbutiamine 200mg)</v>
       </c>
       <c r="B16" s="1">
-        <v>118</v>
+        <v>30</v>
+      </c>
+      <c r="C16" s="1">
+        <v>113700</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Camoas (Flavoxat 200mg)</v>
+        <v>Arthur (Trimebutine 200mg)</v>
       </c>
       <c r="B17" s="1">
-        <v>129</v>
+        <v>160</v>
+      </c>
+      <c r="C17" s="1">
+        <v>276000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Captopril 25</v>
+        <v>Arthur (Trimebutine 200mg)</v>
       </c>
       <c r="B18" s="1">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="C18" s="1">
+        <v>51750</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Cardival (Valsartan 80mg)</v>
+        <v>Arthur (Trimebutine 200mg)</v>
       </c>
       <c r="B19" s="1">
-        <v>10</v>
+        <v>28</v>
+      </c>
+      <c r="C19" s="1">
+        <v>48300</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Carvedol (Carvedilol 6.25mg)</v>
+        <v>Arthur (Trimebutine 200mg)</v>
       </c>
       <c r="B20" s="1">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="C20" s="1">
+        <v>51750</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Casmorin (Amino acids-vitamins)</v>
+        <v>Arthur (Trimebutine 200mg)</v>
       </c>
       <c r="B21" s="1">
-        <v>40</v>
+        <v>30</v>
+      </c>
+      <c r="C21" s="1">
+        <v>51750</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Cefass (Etoricoxib 90mg)</v>
+        <v>Arthur (Trimebutine 200mg)</v>
       </c>
       <c r="B22" s="1">
-        <v>404</v>
+        <v>30</v>
+      </c>
+      <c r="C22" s="1">
+        <v>51750</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Celivite (Multivitamin &amp; Minerals)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B23" s="1">
-        <v>30</v>
+        <v>54</v>
+      </c>
+      <c r="C23" s="1">
+        <v>415800</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Cigenol</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B24" s="1">
-        <v>43</v>
+        <v>8</v>
+      </c>
+      <c r="C24" s="1">
+        <v>61600</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Ciheptal (Piracetam 1200mg) 10ml</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B25" s="1">
         <v>15</v>
       </c>
+      <c r="C25" s="1">
+        <v>115500</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Concor 2.5mg (Bisoprolol )</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B26" s="1">
-        <v>201</v>
+        <v>15</v>
+      </c>
+      <c r="C26" s="1">
+        <v>115500</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Copedina (Clopidogrel 75mg)</v>
+        <v>Be-Stedy 16 (Betahistine 16mg)</v>
       </c>
       <c r="B27" s="1">
-        <v>372</v>
+        <v>30</v>
+      </c>
+      <c r="C27" s="1">
+        <v>98250</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Corbis (Bisoprolol 5mg)</v>
+        <v>Be-Stedy 16 (Betahistine 16mg)</v>
       </c>
       <c r="B28" s="1">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="C28" s="1">
+        <v>189950</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Daflon (Diosmin, hesperidin)</v>
+        <v>Benzatique (Nebivolol 5mg)</v>
       </c>
       <c r="B29" s="1">
-        <v>45</v>
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>27720</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Daktarin oral gel 10g (Miconazole 200mg)</v>
+        <v>Benzatique (Nebivolol 5mg)</v>
       </c>
       <c r="B30" s="1">
-        <v>5</v>
+        <v>120</v>
+      </c>
+      <c r="C30" s="1">
+        <v>831600</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Destor (Desloratadine 5mg)</v>
+        <v>Betnapin (Thymomodulin 80mg)</v>
       </c>
       <c r="B31" s="1">
-        <v>187</v>
+        <v>180</v>
+      </c>
+      <c r="C31" s="1">
+        <v>993600</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Diamicron MR 60mg (Gliclazide)</v>
+        <v>Bisolota F.C  (Bisoprolol 5mg)</v>
       </c>
       <c r="B32" s="1">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3735</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Diosfort (Diosmin 600mg)</v>
+        <v>Bonsartine (Losartan 25mg)</v>
       </c>
       <c r="B33" s="1">
-        <v>328</v>
+        <v>75</v>
+      </c>
+      <c r="C33" s="1">
+        <v>163875</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Dochicin (Colchicine 1mg)</v>
+        <v>Bonsartine (Losartan 25mg)</v>
       </c>
       <c r="B34" s="1">
-        <v>14</v>
+        <v>90</v>
+      </c>
+      <c r="C34" s="1">
+        <v>196650</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Doniwell (Levosulpiride 25mg)</v>
+        <v>Bonsartine (Losartan 25mg)</v>
       </c>
       <c r="B35" s="1">
-        <v>228</v>
+        <v>363</v>
+      </c>
+      <c r="C35" s="1">
+        <v>793155</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Duphalac (Iactulose)</v>
+        <v>Bonsartine (Losartan 25mg)</v>
       </c>
       <c r="B36" s="1">
-        <v>27</v>
+        <v>60</v>
+      </c>
+      <c r="C36" s="1">
+        <v>131100</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Duphaston (Dydrogesterone 10mg)</v>
+        <v>Bonsartine (Losartan 25mg)</v>
       </c>
       <c r="B37" s="1">
-        <v>20</v>
+        <v>120</v>
+      </c>
+      <c r="C37" s="1">
+        <v>262200</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Eldosin (Erdosteine 300mg)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B38" s="1">
-        <v>198</v>
+        <v>470</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1212600</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Esocon  20mg (Esomeprazole)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B39" s="1">
-        <v>2326</v>
+        <v>158</v>
+      </c>
+      <c r="C39" s="1">
+        <v>407640</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Febuday (Febuxostat 40mg)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B40" s="1">
-        <v>23</v>
+        <v>450</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1161000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Flagyl (Metronidazole) 250mg</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B41" s="1">
-        <v>392</v>
+        <v>150</v>
+      </c>
+      <c r="C41" s="1">
+        <v>387000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v xml:space="preserve">Fortrans </v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B42" s="1">
-        <v>2</v>
+        <v>200</v>
+      </c>
+      <c r="C42" s="1">
+        <v>516000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Genprid 2 (Glimepiride 2mg)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B43" s="1">
-        <v>255</v>
+        <v>4469</v>
+      </c>
+      <c r="C43" s="1">
+        <v>11530020</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Genprid 4 (Glimepiride 4mg)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B44" s="1">
-        <v>300</v>
+        <v>790</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2038200</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Glucophage XR 750mg (Metformin hydrochloride)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B45" s="1">
-        <v>12</v>
+        <v>165</v>
+      </c>
+      <c r="C45" s="1">
+        <v>425700</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Gluphakaps (Metformin 850mg)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B46" s="1">
-        <v>2100</v>
+        <v>477</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1230660</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Gujujnam (Piracetam 800mg)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B47" s="1">
-        <v>1888</v>
+        <v>510</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1315800</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Hemfibrat (Fenofibrat 300mg)</v>
+        <v>Cadigrel (Clopidogrel 75mg)</v>
       </c>
       <c r="B48" s="1">
-        <v>30</v>
+        <v>14</v>
+      </c>
+      <c r="C48" s="1">
+        <v>196350</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Hemol (Methocarbamol 750mg)</v>
+        <v>Cadigrel (Clopidogrel 75mg)</v>
       </c>
       <c r="B49" s="1">
-        <v>736</v>
+        <v>30</v>
+      </c>
+      <c r="C49" s="1">
+        <v>420750</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Hemoral (Diosmin, hesperidin)</v>
+        <v>Cadigrel (Clopidogrel 75mg)</v>
       </c>
       <c r="B50" s="1">
-        <v>268</v>
+        <v>40</v>
+      </c>
+      <c r="C50" s="1">
+        <v>561000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Herbesser 30mg (Diltiazem)</v>
+        <v>Camoas (Flavoxat 200mg)</v>
       </c>
       <c r="B51" s="1">
-        <v>754</v>
+        <v>30</v>
+      </c>
+      <c r="C51" s="1">
+        <v>216150</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Hueso (Ursodeoxycholic 300mg)</v>
+        <v>Camoas (Flavoxat 200mg)</v>
       </c>
       <c r="B52" s="1">
-        <v>898</v>
+        <v>30</v>
+      </c>
+      <c r="C52" s="1">
+        <v>216150</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Imdur 30mg (Isosorbide )</v>
+        <v>Camoas (Flavoxat 200mg)</v>
       </c>
       <c r="B53" s="1">
-        <v>314</v>
+        <v>45</v>
+      </c>
+      <c r="C53" s="1">
+        <v>324225</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+        <v>Captopril 25</v>
       </c>
       <c r="B54" s="1">
-        <v>210</v>
+        <v>1</v>
+      </c>
+      <c r="C54" s="1">
+        <v>546</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Janumet (Sitagliptin 50mg+metformin 850mg)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B55" s="1">
-        <v>210</v>
+        <v>14</v>
+      </c>
+      <c r="C55" s="1">
+        <v>138600</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Lactomin Plus (Probiotics)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B56" s="1">
-        <v>490</v>
+        <v>22</v>
+      </c>
+      <c r="C56" s="1">
+        <v>217800</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Legalon (Silymarin 140mg)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B57" s="1">
-        <v>450</v>
+        <v>230</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2277000</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Levothyrox 50mcg (Levothyroxine)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B58" s="1">
-        <v>17</v>
+        <v>30</v>
+      </c>
+      <c r="C58" s="1">
+        <v>297000</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Lipanthyl Supra (Fenofibrate) 160mg</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B59" s="1">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="C59" s="1">
+        <v>148500</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Livosil (Silymarin 140mg)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B60" s="1">
-        <v>4415</v>
+        <v>15</v>
+      </c>
+      <c r="C60" s="1">
+        <v>148500</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B61" s="1">
-        <v>135</v>
+        <v>10</v>
+      </c>
+      <c r="C61" s="1">
+        <v>99000</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Losec (Omeprazole 20mg)</v>
+        <v>Cigenol</v>
       </c>
       <c r="B62" s="1">
-        <v>28</v>
+        <v>45</v>
+      </c>
+      <c r="C62" s="1">
+        <v>142200</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+        <v>Clatab (Clarithromycin 500mg)</v>
       </c>
       <c r="B63" s="1">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="C63" s="1">
+        <v>308000</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Mecitil (Flunarizine 5.9mg)</v>
+        <v>Concor 2.5mg (Bisoprolol )</v>
       </c>
       <c r="B64" s="1">
-        <v>522</v>
+        <v>12</v>
+      </c>
+      <c r="C64" s="1">
+        <v>43440</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+        <v>Concor 2.5mg (Bisoprolol )</v>
       </c>
       <c r="B65" s="1">
-        <v>166</v>
+        <v>140</v>
+      </c>
+      <c r="C65" s="1">
+        <v>506800</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+        <v>Concor 2.5mg (Bisoprolol )</v>
       </c>
       <c r="B66" s="1">
-        <v>115</v>
+        <v>45</v>
+      </c>
+      <c r="C66" s="1">
+        <v>162900</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v xml:space="preserve">Mg B6 </v>
+        <v>Concor 2.5mg (Bisoprolol )</v>
       </c>
       <c r="B67" s="1">
-        <v>759</v>
+        <v>12</v>
+      </c>
+      <c r="C67" s="1">
+        <v>43440</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Montelair (Montelukast 10mg)</v>
+        <v>Concor 2.5mg (Bisoprolol )</v>
       </c>
       <c r="B68" s="1">
-        <v>152</v>
+        <v>16</v>
+      </c>
+      <c r="C68" s="1">
+        <v>57920</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Myomethol (Methocarbamol 500mg)</v>
+        <v>Copedina (Clopidogrel 75mg)</v>
       </c>
       <c r="B69" s="1">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="C69" s="1">
+        <v>229900</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Neurobion (B1 100mg,B6 200mg,B12 200mcg)</v>
+        <v>Copedina (Clopidogrel 75mg)</v>
       </c>
       <c r="B70" s="1">
-        <v>24</v>
+        <v>90</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1089000</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Newbutin (Trimebutine 300mg)</v>
+        <v>Copedina (Clopidogrel 75mg)</v>
       </c>
       <c r="B71" s="1">
-        <v>581</v>
+        <v>15</v>
+      </c>
+      <c r="C71" s="1">
+        <v>181500</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Nikoramyl (Nicorandil 5mg)</v>
+        <v>Copedina (Clopidogrel 75mg)</v>
       </c>
       <c r="B72" s="1">
-        <v>603</v>
+        <v>105</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1270500</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Nolpaza (Pantoprazole 40mg)</v>
+        <v>Copedina (Clopidogrel 75mg)</v>
       </c>
       <c r="B73" s="1">
-        <v>65</v>
+        <v>15</v>
+      </c>
+      <c r="C73" s="1">
+        <v>181500</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Normodipine (Amlodipine 5mg)</v>
+        <v>Corbis (Bisoprolol 5mg)</v>
       </c>
       <c r="B74" s="1">
-        <v>1459</v>
+        <v>15</v>
+      </c>
+      <c r="C74" s="1">
+        <v>51750</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Nước Suối Nhỏ</v>
+        <v>Corbis (Bisoprolol 5mg)</v>
       </c>
       <c r="B75" s="1">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="C75" s="1">
+        <v>51750</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Optipan (Diacerhein 50mg)</v>
+        <v>Corbis (Bisoprolol 5mg)</v>
       </c>
       <c r="B76" s="1">
-        <v>490</v>
+        <v>24</v>
+      </c>
+      <c r="C76" s="1">
+        <v>82800</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v xml:space="preserve">Oresol </v>
+        <v>Corbis (Bisoprolol 5mg)</v>
       </c>
       <c r="B77" s="1">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="C77" s="1">
+        <v>27600</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Panadol (Paracetamol)</v>
+        <v>Daflon (Diosmin, hesperidin)</v>
       </c>
       <c r="B78" s="1">
-        <v>50</v>
+        <v>4</v>
+      </c>
+      <c r="C78" s="1">
+        <v>16440</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Panangin (Magnesium, potassium)</v>
+        <v>Daflon (Diosmin, hesperidin)</v>
       </c>
       <c r="B79" s="1">
-        <v>92</v>
+        <v>45</v>
+      </c>
+      <c r="C79" s="1">
+        <v>184950</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Pangelong (Rebamipide 100mg)</v>
+        <v>Destor (Desloratadine 5mg)</v>
       </c>
       <c r="B80" s="1">
-        <v>2012</v>
+        <v>20</v>
+      </c>
+      <c r="C80" s="1">
+        <v>62100</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>PhilDesona (Budesonide 10ml)</v>
+        <v>Destor (Desloratadine 5mg)</v>
       </c>
       <c r="B81" s="1">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C81" s="1">
+        <v>9315</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Picencal (Calcium &amp; Vitamin D)</v>
+        <v>Destor (Desloratadine 5mg)</v>
       </c>
       <c r="B82" s="1">
-        <v>136</v>
+        <v>171</v>
+      </c>
+      <c r="C82" s="1">
+        <v>530955</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Pricefil (Cefprozil 500mg)</v>
+        <v>Diamicron MR 30mg (Gliclazide)</v>
       </c>
       <c r="B83" s="1">
-        <v>108</v>
+        <v>20</v>
+      </c>
+      <c r="C83" s="1">
+        <v>72200</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Reduze (Glucosamine, chondroitin, zingiber, phellodendron amurense)</v>
+        <v>Diamicron MR 30mg (Gliclazide)</v>
       </c>
       <c r="B84" s="1">
-        <v>210</v>
+        <v>150</v>
+      </c>
+      <c r="C84" s="1">
+        <v>541500</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Remem (Ginkgo biloba 120mg)</v>
+        <v>Diamicron MR 60mg (Gliclazide)</v>
       </c>
       <c r="B85" s="1">
-        <v>240</v>
+        <v>20</v>
+      </c>
+      <c r="C85" s="1">
+        <v>131600</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Rotalzon (Losartan 50mg)</v>
+        <v>Diamicron MR 60mg (Gliclazide)</v>
       </c>
       <c r="B86" s="1">
-        <v>270</v>
+        <v>15</v>
+      </c>
+      <c r="C86" s="1">
+        <v>98700</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>S-cort (Rabamipide 100mg)</v>
+        <v>Diamicron MR 60mg (Gliclazide)</v>
       </c>
       <c r="B87" s="1">
-        <v>492</v>
+        <v>30</v>
+      </c>
+      <c r="C87" s="1">
+        <v>197400</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v xml:space="preserve">Salonpas </v>
+        <v>Diamicron MR 60mg (Gliclazide)</v>
       </c>
       <c r="B88" s="1">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="C88" s="1">
+        <v>197400</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Sanaperol (Rabeprazol 20mg)</v>
+        <v>Diamicron MR 60mg (Gliclazide)</v>
       </c>
       <c r="B89" s="1">
-        <v>1116</v>
+        <v>15</v>
+      </c>
+      <c r="C89" s="1">
+        <v>98700</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Seovigo (Ginkgo biloba 80mg)</v>
+        <v>Diosfort (Diosmin 600mg)</v>
       </c>
       <c r="B90" s="1">
-        <v>178</v>
+        <v>438</v>
+      </c>
+      <c r="C90" s="1">
+        <v>2866710</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Smecta (Diosmectite 3g)</v>
+        <v>Diosfort (Diosmin 600mg)</v>
       </c>
       <c r="B91" s="1">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="C91" s="1">
+        <v>26180</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Somexwell (Esomeprazole 20mg</v>
+        <v>Diosfort (Diosmin 600mg)</v>
       </c>
       <c r="B92" s="1">
-        <v>236</v>
+        <v>40</v>
+      </c>
+      <c r="C92" s="1">
+        <v>261800</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Sporal (Itraconazole 100mg)</v>
+        <v>Diosfort (Diosmin 600mg)</v>
       </c>
       <c r="B93" s="1">
         <v>15</v>
       </c>
+      <c r="C93" s="1">
+        <v>98175</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Stadnolol (Atenolol 50mg)</v>
+        <v>Diosfort (Diosmin 600mg)</v>
       </c>
       <c r="B94" s="1">
         <v>15</v>
       </c>
+      <c r="C94" s="1">
+        <v>98175</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Stemvir (Tenofovir 300mg)</v>
+        <v>Diosfort (Diosmin 600mg)</v>
       </c>
       <c r="B95" s="1">
-        <v>90</v>
+        <v>30</v>
+      </c>
+      <c r="C95" s="1">
+        <v>196350</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Surotadina (Rosuvastatin 10mg)</v>
+        <v>Domitazol (Malva purpurea, xanh methylen, camphor monobromid)</v>
       </c>
       <c r="B96" s="1">
-        <v>2036</v>
+        <v>20</v>
+      </c>
+      <c r="C96" s="1">
+        <v>49800</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Taginyl VN (Acetyl-DL-Leucine 500mg)</v>
+        <v>Domitazol (Malva purpurea, xanh methylen, camphor monobromid)</v>
       </c>
       <c r="B97" s="1">
-        <v>160</v>
+        <v>20</v>
+      </c>
+      <c r="C97" s="1">
+        <v>49800</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Targinos (Arginine 400mg)</v>
+        <v>Doniwell (Levosulpiride 25mg)</v>
       </c>
       <c r="B98" s="1">
-        <v>30</v>
+        <v>49</v>
+      </c>
+      <c r="C98" s="1">
+        <v>163415</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Telod (Telmisartan 40mg)</v>
+        <v>Duphalac (Iactulose)</v>
       </c>
       <c r="B99" s="1">
-        <v>367</v>
+        <v>20</v>
+      </c>
+      <c r="C99" s="1">
+        <v>115000</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Tetracyclin 500mg</v>
+        <v>Edar-EM (Tenofovir, Emtricitabine)</v>
       </c>
       <c r="B100" s="1">
-        <v>392</v>
+        <v>90</v>
+      </c>
+      <c r="C100" s="1">
+        <v>4050000</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Thyrozol 10mg (Thiamazole)</v>
+        <v>Eldosin (Erdosteine 300mg)</v>
       </c>
       <c r="B101" s="1">
-        <v>58</v>
+        <v>10</v>
+      </c>
+      <c r="C101" s="1">
+        <v>66000</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Thyrozol 5mg (Thiamazole)</v>
+        <v>Eldosin (Erdosteine 300mg)</v>
       </c>
       <c r="B102" s="1">
-        <v>14</v>
+        <v>36</v>
+      </c>
+      <c r="C102" s="1">
+        <v>237600</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Triglo (Fenofibrate 200mg)</v>
+        <v>Eldosin (Erdosteine 300mg)</v>
       </c>
       <c r="B103" s="1">
-        <v>722</v>
+        <v>40</v>
+      </c>
+      <c r="C103" s="1">
+        <v>264000</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Trisova (Trimetazidine 20mg)</v>
+        <v>Eldosin (Erdosteine 300mg)</v>
       </c>
       <c r="B104" s="1">
-        <v>720</v>
+        <v>134</v>
+      </c>
+      <c r="C104" s="1">
+        <v>884400</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Ulcersep (Bismuth subsalicylat 262.5mg)</v>
+        <v>Eldosin (Erdosteine 300mg)</v>
       </c>
       <c r="B105" s="1">
-        <v>448</v>
+        <v>20</v>
+      </c>
+      <c r="C105" s="1">
+        <v>132000</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Upsa - C (Vitamin C 1000mg)</v>
+        <v>Eldosin (Erdosteine 300mg)</v>
       </c>
       <c r="B106" s="1">
-        <v>35</v>
+        <v>56</v>
+      </c>
+      <c r="C106" s="1">
+        <v>369600</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Vastarel MR (Trimetazindine) 35mg</v>
+        <v>Eldosin (Erdosteine 300mg)</v>
       </c>
       <c r="B107" s="1">
-        <v>520</v>
+        <v>68</v>
+      </c>
+      <c r="C107" s="1">
+        <v>448800</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Vexinir (Cefdinir 300mg)</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B108" s="1">
-        <v>424</v>
+        <v>120</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1254000</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Vigorito (Vildagliptin 50mg)</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B109" s="1">
-        <v>210</v>
+        <v>114</v>
+      </c>
+      <c r="C109" s="1">
+        <v>1191300</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Vinaflam (Cefuroxime 500mg)</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B110" s="1">
-        <v>124</v>
+        <v>48</v>
+      </c>
+      <c r="C110" s="1">
+        <v>501600</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Vinsalamin (Mesalamin 400mg)</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B111" s="1">
-        <v>7</v>
+        <v>98</v>
+      </c>
+      <c r="C111" s="1">
+        <v>1024100</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Vitamin Pp 500mg(Nicotinamide)</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B112" s="1">
         <v>30</v>
+      </c>
+      <c r="C112" s="1">
+        <v>313500</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Voltaren 1% Emulgel 20g</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B113" s="1">
-        <v>20</v>
+        <v>1442</v>
+      </c>
+      <c r="C113" s="1">
+        <v>15068900</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Xymex-MPS (Fungal Diastase, Papain, Simethicone)</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B114" s="1">
-        <v>675</v>
+        <v>188</v>
+      </c>
+      <c r="C114" s="1">
+        <v>1964600</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B115" s="1">
-        <v>60</v>
+        <v>178</v>
+      </c>
+      <c r="C115" s="1">
+        <v>1860100</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Zentel (albendazole)</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B116" s="1">
-        <v>16</v>
+        <v>90</v>
+      </c>
+      <c r="C116" s="1">
+        <v>940500</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Zyrtec 10 (Cetirizine)</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B117" s="1">
-        <v>15</v>
+        <v>146</v>
+      </c>
+      <c r="C117" s="1">
+        <v>1525700</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
+        <v>Febuday (Febuxostat 40mg)</v>
+      </c>
+      <c r="B118" s="1">
+        <v>53</v>
+      </c>
+      <c r="C118" s="1">
+        <v>845350</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>Flagyl (Metronidazole) 250mg</v>
+      </c>
+      <c r="B119" s="1">
+        <v>140</v>
+      </c>
+      <c r="C119" s="1">
+        <v>161000</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>Flagyl (Metronidazole) 250mg</v>
+      </c>
+      <c r="B120" s="1">
+        <v>56</v>
+      </c>
+      <c r="C120" s="1">
+        <v>64400</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Genprid 2 (Glimepiride 2mg)</v>
+      </c>
+      <c r="B121" s="1">
+        <v>75</v>
+      </c>
+      <c r="C121" s="1">
+        <v>345000</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>Genprid 2 (Glimepiride 2mg)</v>
+      </c>
+      <c r="B122" s="1">
+        <v>50</v>
+      </c>
+      <c r="C122" s="1">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Genprid 4 (Glimepiride 4mg)</v>
+      </c>
+      <c r="B123" s="1">
+        <v>60</v>
+      </c>
+      <c r="C123" s="1">
+        <v>343200</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Genprid 4 (Glimepiride 4mg)</v>
+      </c>
+      <c r="B124" s="1">
+        <v>45</v>
+      </c>
+      <c r="C124" s="1">
+        <v>257400</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>Genprid 4 (Glimepiride 4mg)</v>
+      </c>
+      <c r="B125" s="1">
+        <v>345</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1973400</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>Genprid 4 (Glimepiride 4mg)</v>
+      </c>
+      <c r="B126" s="1">
+        <v>30</v>
+      </c>
+      <c r="C126" s="1">
+        <v>171600</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>Genprid 4 (Glimepiride 4mg)</v>
+      </c>
+      <c r="B127" s="1">
+        <v>15</v>
+      </c>
+      <c r="C127" s="1">
+        <v>85800</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B128" s="1">
+        <v>90</v>
+      </c>
+      <c r="C128" s="1">
+        <v>227700</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B129" s="1">
+        <v>20</v>
+      </c>
+      <c r="C129" s="1">
+        <v>50600</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B130" s="1">
+        <v>127</v>
+      </c>
+      <c r="C130" s="1">
+        <v>321310</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B131" s="1">
+        <v>60</v>
+      </c>
+      <c r="C131" s="1">
+        <v>151800</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B132" s="1">
+        <v>1280</v>
+      </c>
+      <c r="C132" s="1">
+        <v>3238400</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B133" s="1">
+        <v>180</v>
+      </c>
+      <c r="C133" s="1">
+        <v>455400</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B134" s="1">
+        <v>60</v>
+      </c>
+      <c r="C134" s="1">
+        <v>151800</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B135" s="1">
+        <v>60</v>
+      </c>
+      <c r="C135" s="1">
+        <v>151800</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>Gujujnam (Piracetam 800mg)</v>
+      </c>
+      <c r="B136" s="1">
+        <v>208</v>
+      </c>
+      <c r="C136" s="1">
+        <v>837200</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>Gujujnam (Piracetam 800mg)</v>
+      </c>
+      <c r="B137" s="1">
+        <v>60</v>
+      </c>
+      <c r="C137" s="1">
+        <v>241500</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>Gujujnam (Piracetam 800mg)</v>
+      </c>
+      <c r="B138" s="1">
+        <v>104</v>
+      </c>
+      <c r="C138" s="1">
+        <v>418600</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>Gujujnam (Piracetam 800mg)</v>
+      </c>
+      <c r="B139" s="1">
+        <v>144</v>
+      </c>
+      <c r="C139" s="1">
+        <v>579600</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>Gujujnam (Piracetam 800mg)</v>
+      </c>
+      <c r="B140" s="1">
+        <v>80</v>
+      </c>
+      <c r="C140" s="1">
+        <v>322000</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>Gujujnam (Piracetam 800mg)</v>
+      </c>
+      <c r="B141" s="1">
+        <v>1311</v>
+      </c>
+      <c r="C141" s="1">
+        <v>5276775</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>Gujujnam (Piracetam 800mg)</v>
+      </c>
+      <c r="B142" s="1">
+        <v>188</v>
+      </c>
+      <c r="C142" s="1">
+        <v>756700</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>Gujujnam (Piracetam 800mg)</v>
+      </c>
+      <c r="B143" s="1">
+        <v>88</v>
+      </c>
+      <c r="C143" s="1">
+        <v>354200</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>Gujujnam (Piracetam 800mg)</v>
+      </c>
+      <c r="B144" s="1">
+        <v>120</v>
+      </c>
+      <c r="C144" s="1">
+        <v>483000</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>Gujujnam (Piracetam 800mg)</v>
+      </c>
+      <c r="B145" s="1">
+        <v>270</v>
+      </c>
+      <c r="C145" s="1">
+        <v>1086750</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>Hemol (Methocarbamol 750mg)</v>
+      </c>
+      <c r="B146" s="1">
+        <v>28</v>
+      </c>
+      <c r="C146" s="1">
+        <v>99820</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>Hemol (Methocarbamol 750mg)</v>
+      </c>
+      <c r="B147" s="1">
+        <v>30</v>
+      </c>
+      <c r="C147" s="1">
+        <v>106950</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>Hemol (Methocarbamol 750mg)</v>
+      </c>
+      <c r="B148" s="1">
+        <v>14</v>
+      </c>
+      <c r="C148" s="1">
+        <v>49910</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>Hemol (Methocarbamol 750mg)</v>
+      </c>
+      <c r="B149" s="1">
+        <v>20</v>
+      </c>
+      <c r="C149" s="1">
+        <v>71300</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>Hemol (Methocarbamol 750mg)</v>
+      </c>
+      <c r="B150" s="1">
+        <v>58</v>
+      </c>
+      <c r="C150" s="1">
+        <v>206770</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>Hemol (Methocarbamol 750mg)</v>
+      </c>
+      <c r="B151" s="1">
+        <v>294</v>
+      </c>
+      <c r="C151" s="1">
+        <v>1048110</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>Hemol (Methocarbamol 750mg)</v>
+      </c>
+      <c r="B152" s="1">
+        <v>30</v>
+      </c>
+      <c r="C152" s="1">
+        <v>106950</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>Hemol (Methocarbamol 750mg)</v>
+      </c>
+      <c r="B153" s="1">
+        <v>30</v>
+      </c>
+      <c r="C153" s="1">
+        <v>106950</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>Hemoral (Diosmin, hesperidin)</v>
+      </c>
+      <c r="B154" s="1">
+        <v>30</v>
+      </c>
+      <c r="C154" s="1">
+        <v>113850</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>Hemoral (Diosmin, hesperidin)</v>
+      </c>
+      <c r="B155" s="1">
+        <v>28</v>
+      </c>
+      <c r="C155" s="1">
+        <v>106260</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>Hemoral (Diosmin, hesperidin)</v>
+      </c>
+      <c r="B156" s="1">
+        <v>30</v>
+      </c>
+      <c r="C156" s="1">
+        <v>113850</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>Herbesser 30mg (Diltiazem)</v>
+      </c>
+      <c r="B157" s="1">
+        <v>44</v>
+      </c>
+      <c r="C157" s="1">
+        <v>67760</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>Herbesser 30mg (Diltiazem)</v>
+      </c>
+      <c r="B158" s="1">
+        <v>90</v>
+      </c>
+      <c r="C158" s="1">
+        <v>138600</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>Herbesser 30mg (Diltiazem)</v>
+      </c>
+      <c r="B159" s="1">
+        <v>15</v>
+      </c>
+      <c r="C159" s="1">
+        <v>23100</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>Herbesser 30mg (Diltiazem)</v>
+      </c>
+      <c r="B160" s="1">
+        <v>52</v>
+      </c>
+      <c r="C160" s="1">
+        <v>80080</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>Herbesser 30mg (Diltiazem)</v>
+      </c>
+      <c r="B161" s="1">
+        <v>10</v>
+      </c>
+      <c r="C161" s="1">
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>Herbesser 30mg (Diltiazem)</v>
+      </c>
+      <c r="B162" s="1">
+        <v>15</v>
+      </c>
+      <c r="C162" s="1">
+        <v>23100</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>Hueso (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B163" s="1">
+        <v>35</v>
+      </c>
+      <c r="C163" s="1">
+        <v>508200</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>Hueso (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B164" s="1">
+        <v>30</v>
+      </c>
+      <c r="C164" s="1">
+        <v>435600</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>Hueso (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B165" s="1">
+        <v>100</v>
+      </c>
+      <c r="C165" s="1">
+        <v>1452000</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>Hueso (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B166" s="1">
+        <v>40</v>
+      </c>
+      <c r="C166" s="1">
+        <v>580800</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>Hueso (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B167" s="1">
+        <v>508</v>
+      </c>
+      <c r="C167" s="1">
+        <v>7376160</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>Hueso (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B168" s="1">
+        <v>40</v>
+      </c>
+      <c r="C168" s="1">
+        <v>580800</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>Hueso (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B169" s="1">
+        <v>120</v>
+      </c>
+      <c r="C169" s="1">
+        <v>1742400</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>Hueso (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B170" s="1">
+        <v>99</v>
+      </c>
+      <c r="C170" s="1">
+        <v>1437480</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>Imdur 30mg (Isosorbide )</v>
+      </c>
+      <c r="B171" s="1">
+        <v>20</v>
+      </c>
+      <c r="C171" s="1">
+        <v>74600</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>Imdur 30mg (Isosorbide )</v>
+      </c>
+      <c r="B172" s="1">
+        <v>30</v>
+      </c>
+      <c r="C172" s="1">
+        <v>111900</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>Imdur 30mg (Isosorbide )</v>
+      </c>
+      <c r="B173" s="1">
+        <v>24</v>
+      </c>
+      <c r="C173" s="1">
+        <v>89520</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+      </c>
+      <c r="B174" s="1">
+        <v>60</v>
+      </c>
+      <c r="C174" s="1">
+        <v>213900</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+      </c>
+      <c r="B175" s="1">
+        <v>240</v>
+      </c>
+      <c r="C175" s="1">
+        <v>855600</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>Janumet (Sitagliptin 50mg+metformin 850mg)</v>
+      </c>
+      <c r="B176" s="1">
+        <v>60</v>
+      </c>
+      <c r="C176" s="1">
+        <v>702000</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>Lactomin Plus (Probiotics)</v>
+      </c>
+      <c r="B177" s="1">
+        <v>25</v>
+      </c>
+      <c r="C177" s="1">
+        <v>140875</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>Lactomin Plus (Probiotics)</v>
+      </c>
+      <c r="B178" s="1">
+        <v>24</v>
+      </c>
+      <c r="C178" s="1">
+        <v>135240</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>Lactomin Plus (Probiotics)</v>
+      </c>
+      <c r="B179" s="1">
+        <v>7</v>
+      </c>
+      <c r="C179" s="1">
+        <v>39445</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>Lactomin Plus (Probiotics)</v>
+      </c>
+      <c r="B180" s="1">
+        <v>78</v>
+      </c>
+      <c r="C180" s="1">
+        <v>439530</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>Lactomin Plus (Probiotics)</v>
+      </c>
+      <c r="B181" s="1">
+        <v>20</v>
+      </c>
+      <c r="C181" s="1">
+        <v>112700</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>Lactomin Plus (Probiotics)</v>
+      </c>
+      <c r="B182" s="1">
+        <v>14</v>
+      </c>
+      <c r="C182" s="1">
+        <v>78890</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>Lactomin Plus (Probiotics)</v>
+      </c>
+      <c r="B183" s="1">
+        <v>148</v>
+      </c>
+      <c r="C183" s="1">
+        <v>833980</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>Lactomin Plus (Probiotics)</v>
+      </c>
+      <c r="B184" s="1">
+        <v>3</v>
+      </c>
+      <c r="C184" s="1">
+        <v>16905</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>Lactomin Plus (Probiotics)</v>
+      </c>
+      <c r="B185" s="1">
+        <v>87</v>
+      </c>
+      <c r="C185" s="1">
+        <v>490245</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>Lactomin Plus (Probiotics)</v>
+      </c>
+      <c r="B186" s="1">
+        <v>70</v>
+      </c>
+      <c r="C186" s="1">
+        <v>394450</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>Legalon (Silymarin 140mg)</v>
+      </c>
+      <c r="B187" s="1">
+        <v>104</v>
+      </c>
+      <c r="C187" s="1">
+        <v>800800</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>Levothyrox 100mcg (Levothyroxine)</v>
+      </c>
+      <c r="B188" s="1">
+        <v>30</v>
+      </c>
+      <c r="C188" s="1">
+        <v>50700</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>Levothyrox 50mcg (Levothyroxine)</v>
+      </c>
+      <c r="B189" s="1">
+        <v>10</v>
+      </c>
+      <c r="C189" s="1">
+        <v>11550</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>Levothyrox 50mcg (Levothyroxine)</v>
+      </c>
+      <c r="B190" s="1">
+        <v>234</v>
+      </c>
+      <c r="C190" s="1">
+        <v>270270</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>Lipanthyl Supra (Fenofibrate) 160mg</v>
+      </c>
+      <c r="B191" s="1">
+        <v>30</v>
+      </c>
+      <c r="C191" s="1">
+        <v>358200</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B192" s="1">
+        <v>70</v>
+      </c>
+      <c r="C192" s="1">
+        <v>523600</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B193" s="1">
+        <v>178</v>
+      </c>
+      <c r="C193" s="1">
+        <v>1331440</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B194" s="1">
+        <v>60</v>
+      </c>
+      <c r="C194" s="1">
+        <v>448800</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B195" s="1">
+        <v>252</v>
+      </c>
+      <c r="C195" s="1">
+        <v>1884960</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B196" s="1">
+        <v>100</v>
+      </c>
+      <c r="C196" s="1">
+        <v>748000</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B197" s="1">
+        <v>268</v>
+      </c>
+      <c r="C197" s="1">
+        <v>2004640</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B198" s="1">
+        <v>1487</v>
+      </c>
+      <c r="C198" s="1">
+        <v>11122760</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B199" s="1">
+        <v>258</v>
+      </c>
+      <c r="C199" s="1">
+        <v>1929840</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B200" s="1">
+        <v>120</v>
+      </c>
+      <c r="C200" s="1">
+        <v>897600</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B201" s="1">
+        <v>130</v>
+      </c>
+      <c r="C201" s="1">
+        <v>972400</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>Locinvid (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B202" s="1">
+        <v>10</v>
+      </c>
+      <c r="C202" s="1">
+        <v>187000</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>Locinvid (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B203" s="1">
+        <v>14</v>
+      </c>
+      <c r="C203" s="1">
+        <v>261800</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>Locinvid (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B204" s="1">
+        <v>24</v>
+      </c>
+      <c r="C204" s="1">
+        <v>448800</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>Locinvid (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B205" s="1">
+        <v>24</v>
+      </c>
+      <c r="C205" s="1">
+        <v>448800</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+      </c>
+      <c r="B206" s="1">
+        <v>75</v>
+      </c>
+      <c r="C206" s="1">
+        <v>437250</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>Losec (Omeprazole 20mg)</v>
+      </c>
+      <c r="B207" s="1">
+        <v>56</v>
+      </c>
+      <c r="C207" s="1">
+        <v>1647520</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>Losec (Omeprazole 20mg)</v>
+      </c>
+      <c r="B208" s="1">
+        <v>7</v>
+      </c>
+      <c r="C208" s="1">
+        <v>205940</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>Lothisil (PTU-Propylthiouracil 50mg)</v>
+      </c>
+      <c r="B209" s="1">
+        <v>45</v>
+      </c>
+      <c r="C209" s="1">
+        <v>51750</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>Loxcip (Fexofenadine 180mg)</v>
+      </c>
+      <c r="B210" s="1">
+        <v>15</v>
+      </c>
+      <c r="C210" s="1">
+        <v>81075</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B211" s="1">
+        <v>30</v>
+      </c>
+      <c r="C211" s="1">
+        <v>485100</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>Mecitil (Flunarizine 5.9mg)</v>
+      </c>
+      <c r="B212" s="1">
+        <v>15</v>
+      </c>
+      <c r="C212" s="1">
+        <v>48300</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>Mecitil (Flunarizine 5.9mg)</v>
+      </c>
+      <c r="B213" s="1">
+        <v>52</v>
+      </c>
+      <c r="C213" s="1">
+        <v>167440</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>Mecitil (Flunarizine 5.9mg)</v>
+      </c>
+      <c r="B214" s="1">
+        <v>27</v>
+      </c>
+      <c r="C214" s="1">
+        <v>86940</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>Mecitil (Flunarizine 5.9mg)</v>
+      </c>
+      <c r="B215" s="1">
+        <v>233</v>
+      </c>
+      <c r="C215" s="1">
+        <v>750260</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>Mecitil (Flunarizine 5.9mg)</v>
+      </c>
+      <c r="B216" s="1">
+        <v>3</v>
+      </c>
+      <c r="C216" s="1">
+        <v>9660</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>Mecitil (Flunarizine 5.9mg)</v>
+      </c>
+      <c r="B217" s="1">
+        <v>55</v>
+      </c>
+      <c r="C217" s="1">
+        <v>177100</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>Mecitil (Flunarizine 5.9mg)</v>
+      </c>
+      <c r="B218" s="1">
+        <v>15</v>
+      </c>
+      <c r="C218" s="1">
+        <v>48300</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+      </c>
+      <c r="B219" s="1">
+        <v>15</v>
+      </c>
+      <c r="C219" s="1">
+        <v>44850</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+      </c>
+      <c r="B220" s="1">
+        <v>30</v>
+      </c>
+      <c r="C220" s="1">
+        <v>144900</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+      </c>
+      <c r="B221" s="1">
+        <v>20</v>
+      </c>
+      <c r="C221" s="1">
+        <v>96600</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+      </c>
+      <c r="B222" s="1">
+        <v>30</v>
+      </c>
+      <c r="C222" s="1">
+        <v>144900</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+      </c>
+      <c r="B223" s="1">
+        <v>86</v>
+      </c>
+      <c r="C223" s="1">
+        <v>415380</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+      </c>
+      <c r="B224" s="1">
+        <v>50</v>
+      </c>
+      <c r="C224" s="1">
+        <v>241500</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>Mexams (Montelukast 5mg)</v>
+      </c>
+      <c r="B225" s="1">
+        <v>30</v>
+      </c>
+      <c r="C225" s="1">
+        <v>168300</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B226" s="1">
+        <v>14</v>
+      </c>
+      <c r="C226" s="1">
+        <v>177100</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B227" s="1">
+        <v>135</v>
+      </c>
+      <c r="C227" s="1">
+        <v>1707750</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B228" s="1">
+        <v>60</v>
+      </c>
+      <c r="C228" s="1">
+        <v>759000</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B229" s="1">
+        <v>28</v>
+      </c>
+      <c r="C229" s="1">
+        <v>354200</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v xml:space="preserve">Mg B6 </v>
+      </c>
+      <c r="B230" s="1">
+        <v>88</v>
+      </c>
+      <c r="C230" s="1">
+        <v>186560</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v xml:space="preserve">Mg B6 </v>
+      </c>
+      <c r="B231" s="1">
+        <v>28</v>
+      </c>
+      <c r="C231" s="1">
+        <v>59360</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v xml:space="preserve">Mg B6 </v>
+      </c>
+      <c r="B232" s="1">
+        <v>75</v>
+      </c>
+      <c r="C232" s="1">
+        <v>159000</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v xml:space="preserve">Mg B6 </v>
+      </c>
+      <c r="B233" s="1">
+        <v>520</v>
+      </c>
+      <c r="C233" s="1">
+        <v>1102400</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v xml:space="preserve">Mg B6 </v>
+      </c>
+      <c r="B234" s="1">
+        <v>58</v>
+      </c>
+      <c r="C234" s="1">
+        <v>122960</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v xml:space="preserve">Mg B6 </v>
+      </c>
+      <c r="B235" s="1">
+        <v>7</v>
+      </c>
+      <c r="C235" s="1">
+        <v>14840</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B236" s="1">
+        <v>20</v>
+      </c>
+      <c r="C236" s="1">
+        <v>154000</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B237" s="1">
+        <v>4</v>
+      </c>
+      <c r="C237" s="1">
+        <v>30800</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B238" s="1">
+        <v>54</v>
+      </c>
+      <c r="C238" s="1">
+        <v>415800</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B239" s="1">
+        <v>15</v>
+      </c>
+      <c r="C239" s="1">
+        <v>115500</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B240" s="1">
+        <v>28</v>
+      </c>
+      <c r="C240" s="1">
+        <v>215600</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B241" s="1">
+        <v>116</v>
+      </c>
+      <c r="C241" s="1">
+        <v>893200</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B242" s="1">
+        <v>54</v>
+      </c>
+      <c r="C242" s="1">
+        <v>415800</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B243" s="1">
+        <v>15</v>
+      </c>
+      <c r="C243" s="1">
+        <v>115500</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B244" s="1">
+        <v>5</v>
+      </c>
+      <c r="C244" s="1">
+        <v>38500</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>Neurobion (B1 100mg,B6 200mg,B12 200mcg)</v>
+      </c>
+      <c r="B245" s="1">
+        <v>70</v>
+      </c>
+      <c r="C245" s="1">
+        <v>156100</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>Newbutin (Trimebutine 300mg)</v>
+      </c>
+      <c r="B246" s="1">
+        <v>20</v>
+      </c>
+      <c r="C246" s="1">
+        <v>134200</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>Newbutin (Trimebutine 300mg)</v>
+      </c>
+      <c r="B247" s="1">
+        <v>15</v>
+      </c>
+      <c r="C247" s="1">
+        <v>100650</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>Newbutin (Trimebutine 300mg)</v>
+      </c>
+      <c r="B248" s="1">
+        <v>15</v>
+      </c>
+      <c r="C248" s="1">
+        <v>100650</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>Newbutin (Trimebutine 300mg)</v>
+      </c>
+      <c r="B249" s="1">
+        <v>163</v>
+      </c>
+      <c r="C249" s="1">
+        <v>1093730</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>Newbutin (Trimebutine 300mg)</v>
+      </c>
+      <c r="B250" s="1">
+        <v>30</v>
+      </c>
+      <c r="C250" s="1">
+        <v>201300</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>Newbutin (Trimebutine 300mg)</v>
+      </c>
+      <c r="B251" s="1">
+        <v>35</v>
+      </c>
+      <c r="C251" s="1">
+        <v>234850</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>Newbutin (Trimebutine 300mg)</v>
+      </c>
+      <c r="B252" s="1">
+        <v>15</v>
+      </c>
+      <c r="C252" s="1">
+        <v>100650</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>Newbutin (Trimebutine 300mg)</v>
+      </c>
+      <c r="B253" s="1">
+        <v>15</v>
+      </c>
+      <c r="C253" s="1">
+        <v>100650</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>Newbutin (Trimebutine 300mg)</v>
+      </c>
+      <c r="B254" s="1">
+        <v>30</v>
+      </c>
+      <c r="C254" s="1">
+        <v>201300</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>Nikoramyl (Nicorandil 5mg)</v>
+      </c>
+      <c r="B255" s="1">
+        <v>90</v>
+      </c>
+      <c r="C255" s="1">
+        <v>362250</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>Nikoramyl (Nicorandil 5mg)</v>
+      </c>
+      <c r="B256" s="1">
+        <v>90</v>
+      </c>
+      <c r="C256" s="1">
+        <v>362250</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>Nikoramyl (Nicorandil 5mg)</v>
+      </c>
+      <c r="B257" s="1">
+        <v>179</v>
+      </c>
+      <c r="C257" s="1">
+        <v>720475</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>Nikoramyl (Nicorandil 5mg)</v>
+      </c>
+      <c r="B258" s="1">
+        <v>60</v>
+      </c>
+      <c r="C258" s="1">
+        <v>241500</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B259" s="1">
+        <v>15</v>
+      </c>
+      <c r="C259" s="1">
+        <v>189750</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B260" s="1">
+        <v>30</v>
+      </c>
+      <c r="C260" s="1">
+        <v>138000</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B261" s="1">
+        <v>14</v>
+      </c>
+      <c r="C261" s="1">
+        <v>64400</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B262" s="1">
+        <v>71</v>
+      </c>
+      <c r="C262" s="1">
+        <v>326600</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B263" s="1">
+        <v>192</v>
+      </c>
+      <c r="C263" s="1">
+        <v>883200</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B264" s="1">
+        <v>35</v>
+      </c>
+      <c r="C264" s="1">
+        <v>161000</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B265" s="1">
+        <v>60</v>
+      </c>
+      <c r="C265" s="1">
+        <v>276000</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B266" s="1">
+        <v>814</v>
+      </c>
+      <c r="C266" s="1">
+        <v>3744400</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B267" s="1">
+        <v>134</v>
+      </c>
+      <c r="C267" s="1">
+        <v>616400</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B268" s="1">
+        <v>99</v>
+      </c>
+      <c r="C268" s="1">
+        <v>455400</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B269" s="1">
+        <v>79</v>
+      </c>
+      <c r="C269" s="1">
+        <v>363400</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>Optipan (Diacerhein 50mg)</v>
+      </c>
+      <c r="B270" s="1">
+        <v>30</v>
+      </c>
+      <c r="C270" s="1">
+        <v>326700</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>Optipan (Diacerhein 50mg)</v>
+      </c>
+      <c r="B271" s="1">
+        <v>60</v>
+      </c>
+      <c r="C271" s="1">
+        <v>653400</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>Optipan (Diacerhein 50mg)</v>
+      </c>
+      <c r="B272" s="1">
+        <v>400</v>
+      </c>
+      <c r="C272" s="1">
+        <v>4356000</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>Optipan (Diacerhein 50mg)</v>
+      </c>
+      <c r="B273" s="1">
+        <v>30</v>
+      </c>
+      <c r="C273" s="1">
+        <v>326700</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>Optipan (Diacerhein 50mg)</v>
+      </c>
+      <c r="B274" s="1">
+        <v>30</v>
+      </c>
+      <c r="C274" s="1">
+        <v>326700</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>PMS-Ursodiol C 250mg</v>
+      </c>
+      <c r="B275" s="1">
+        <v>180</v>
+      </c>
+      <c r="C275" s="1">
+        <v>2530800</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>Panadol (Paracetamol)</v>
+      </c>
+      <c r="B276" s="1">
+        <v>10</v>
+      </c>
+      <c r="C276" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>Panadol (Paracetamol)</v>
+      </c>
+      <c r="B277" s="1">
+        <v>60</v>
+      </c>
+      <c r="C277" s="1">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>Panadol (Paracetamol)</v>
+      </c>
+      <c r="B278" s="1">
+        <v>10</v>
+      </c>
+      <c r="C278" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>Panangin (Magnesium, potassium)</v>
+      </c>
+      <c r="B279" s="1">
+        <v>20</v>
+      </c>
+      <c r="C279" s="1">
+        <v>41300</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>Panangin (Magnesium, potassium)</v>
+      </c>
+      <c r="B280" s="1">
+        <v>20</v>
+      </c>
+      <c r="C280" s="1">
+        <v>41300</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>Panangin (Magnesium, potassium)</v>
+      </c>
+      <c r="B281" s="1">
+        <v>26</v>
+      </c>
+      <c r="C281" s="1">
+        <v>53690</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>Panangin (Magnesium, potassium)</v>
+      </c>
+      <c r="B282" s="1">
+        <v>28</v>
+      </c>
+      <c r="C282" s="1">
+        <v>57820</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>Panangin (Magnesium, potassium)</v>
+      </c>
+      <c r="B283" s="1">
+        <v>30</v>
+      </c>
+      <c r="C283" s="1">
+        <v>61950</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>Pangelong (Rebamipide 100mg)</v>
+      </c>
+      <c r="B284" s="1">
+        <v>138</v>
+      </c>
+      <c r="C284" s="1">
+        <v>698280</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>Pangelong (Rebamipide 100mg)</v>
+      </c>
+      <c r="B285" s="1">
+        <v>86</v>
+      </c>
+      <c r="C285" s="1">
+        <v>435160</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>Pangelong (Rebamipide 100mg)</v>
+      </c>
+      <c r="B286" s="1">
+        <v>30</v>
+      </c>
+      <c r="C286" s="1">
+        <v>151800</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>Pangelong (Rebamipide 100mg)</v>
+      </c>
+      <c r="B287" s="1">
+        <v>120</v>
+      </c>
+      <c r="C287" s="1">
+        <v>607200</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>Pangelong (Rebamipide 100mg)</v>
+      </c>
+      <c r="B288" s="1">
+        <v>746</v>
+      </c>
+      <c r="C288" s="1">
+        <v>3774760</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>Pangelong (Rebamipide 100mg)</v>
+      </c>
+      <c r="B289" s="1">
+        <v>30</v>
+      </c>
+      <c r="C289" s="1">
+        <v>151800</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>Pangelong (Rebamipide 100mg)</v>
+      </c>
+      <c r="B290" s="1">
+        <v>74</v>
+      </c>
+      <c r="C290" s="1">
+        <v>374440</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>Pangelong (Rebamipide 100mg)</v>
+      </c>
+      <c r="B291" s="1">
+        <v>28</v>
+      </c>
+      <c r="C291" s="1">
+        <v>141680</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>Pangelong (Rebamipide 100mg)</v>
+      </c>
+      <c r="B292" s="1">
+        <v>70</v>
+      </c>
+      <c r="C292" s="1">
+        <v>354200</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>Pangelong (Rebamipide 100mg)</v>
+      </c>
+      <c r="B293" s="1">
+        <v>30</v>
+      </c>
+      <c r="C293" s="1">
+        <v>151800</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>PhilDesona (Budesonide 10ml)</v>
+      </c>
+      <c r="B294" s="1">
+        <v>1</v>
+      </c>
+      <c r="C294" s="1">
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B295" s="1">
+        <v>30</v>
+      </c>
+      <c r="C295" s="1">
+        <v>100050</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B296" s="1">
+        <v>30</v>
+      </c>
+      <c r="C296" s="1">
+        <v>100050</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B297" s="1">
+        <v>233</v>
+      </c>
+      <c r="C297" s="1">
+        <v>777055</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B298" s="1">
+        <v>30</v>
+      </c>
+      <c r="C298" s="1">
+        <v>100050</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B299" s="1">
+        <v>30</v>
+      </c>
+      <c r="C299" s="1">
+        <v>100050</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B300" s="1">
+        <v>60</v>
+      </c>
+      <c r="C300" s="1">
+        <v>200100</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>Pricefil (Cefprozil 500mg)</v>
+      </c>
+      <c r="B301" s="1">
+        <v>10</v>
+      </c>
+      <c r="C301" s="1">
+        <v>374000</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>Pricefil (Cefprozil 500mg)</v>
+      </c>
+      <c r="B302" s="1">
+        <v>54</v>
+      </c>
+      <c r="C302" s="1">
+        <v>2019600</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>Pricefil (Cefprozil 500mg)</v>
+      </c>
+      <c r="B303" s="1">
+        <v>14</v>
+      </c>
+      <c r="C303" s="1">
+        <v>523600</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>Pricefil (Cefprozil 500mg)</v>
+      </c>
+      <c r="B304" s="1">
+        <v>10</v>
+      </c>
+      <c r="C304" s="1">
+        <v>374000</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>Ranilex (Mg(oxyd, aluminosilicat, alumin), ranitidin)</v>
+      </c>
+      <c r="B305" s="1">
+        <v>28</v>
+      </c>
+      <c r="C305" s="1">
+        <v>181720</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>Reduze (Glucosamine, chondroitin, zingiber, phellodendron amurense)</v>
+      </c>
+      <c r="B306" s="1">
+        <v>60</v>
+      </c>
+      <c r="C306" s="1">
+        <v>462000</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>Reduze (Glucosamine, chondroitin, zingiber, phellodendron amurense)</v>
+      </c>
+      <c r="B307" s="1">
+        <v>60</v>
+      </c>
+      <c r="C307" s="1">
+        <v>462000</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B308" s="1">
+        <v>15</v>
+      </c>
+      <c r="C308" s="1">
+        <v>138600</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>Rotalzon (Losartan 50mg)</v>
+      </c>
+      <c r="B309" s="1">
+        <v>5</v>
+      </c>
+      <c r="C309" s="1">
+        <v>35750</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>Rotalzon (Losartan 50mg)</v>
+      </c>
+      <c r="B310" s="1">
+        <v>7</v>
+      </c>
+      <c r="C310" s="1">
+        <v>50050</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>Rotalzon (Losartan 50mg)</v>
+      </c>
+      <c r="B311" s="1">
+        <v>89</v>
+      </c>
+      <c r="C311" s="1">
+        <v>636350</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>Rotalzon (Losartan 50mg)</v>
+      </c>
+      <c r="B312" s="1">
+        <v>3</v>
+      </c>
+      <c r="C312" s="1">
+        <v>21450</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>Rotalzon (Losartan 50mg)</v>
+      </c>
+      <c r="B313" s="1">
+        <v>20</v>
+      </c>
+      <c r="C313" s="1">
+        <v>143000</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>Rotalzon (Losartan 50mg)</v>
+      </c>
+      <c r="B314" s="1">
+        <v>30</v>
+      </c>
+      <c r="C314" s="1">
+        <v>214500</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>S-cort (Rabamipide 100mg)</v>
+      </c>
+      <c r="B315" s="1">
+        <v>20</v>
+      </c>
+      <c r="C315" s="1">
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>S-cort (Rabamipide 100mg)</v>
+      </c>
+      <c r="B316" s="1">
+        <v>30</v>
+      </c>
+      <c r="C316" s="1">
+        <v>138000</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>S-cort (Rabamipide 100mg)</v>
+      </c>
+      <c r="B317" s="1">
+        <v>238</v>
+      </c>
+      <c r="C317" s="1">
+        <v>1094800</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>S-cort (Rabamipide 100mg)</v>
+      </c>
+      <c r="B318" s="1">
+        <v>30</v>
+      </c>
+      <c r="C318" s="1">
+        <v>138000</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v>S-cort (Rabamipide 100mg)</v>
+      </c>
+      <c r="B319" s="1">
+        <v>20</v>
+      </c>
+      <c r="C319" s="1">
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>Safena (Atorvastatin 10mg)</v>
+      </c>
+      <c r="B320" s="1">
+        <v>90</v>
+      </c>
+      <c r="C320" s="1">
+        <v>356850</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B321" s="1">
+        <v>103</v>
+      </c>
+      <c r="C321" s="1">
+        <v>895070</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B322" s="1">
+        <v>48</v>
+      </c>
+      <c r="C322" s="1">
+        <v>417120</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B323" s="1">
+        <v>57</v>
+      </c>
+      <c r="C323" s="1">
+        <v>495330</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B324" s="1">
+        <v>120</v>
+      </c>
+      <c r="C324" s="1">
+        <v>1042800</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B325" s="1">
+        <v>607</v>
+      </c>
+      <c r="C325" s="1">
+        <v>5274830</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B326" s="1">
+        <v>65</v>
+      </c>
+      <c r="C326" s="1">
+        <v>564850</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B327" s="1">
+        <v>81</v>
+      </c>
+      <c r="C327" s="1">
+        <v>703890</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B328" s="1">
+        <v>75</v>
+      </c>
+      <c r="C328" s="1">
+        <v>651750</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B329" s="1">
+        <v>50</v>
+      </c>
+      <c r="C329" s="1">
+        <v>434500</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B330" s="1">
+        <v>40</v>
+      </c>
+      <c r="C330" s="1">
+        <v>347600</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="str">
+        <v>Seovigo (Ginkgo biloba 80mg)</v>
+      </c>
+      <c r="B331" s="1">
+        <v>14</v>
+      </c>
+      <c r="C331" s="1">
+        <v>75670</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="str">
+        <v>Seovigo (Ginkgo biloba 80mg)</v>
+      </c>
+      <c r="B332" s="1">
+        <v>30</v>
+      </c>
+      <c r="C332" s="1">
+        <v>162150</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="str">
+        <v>Seretide 25/250 (Salmeterol, fluticasone propionate)</v>
+      </c>
+      <c r="B333" s="1">
+        <v>1</v>
+      </c>
+      <c r="C333" s="1">
+        <v>327200</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="str">
+        <v>Seretide 25/250 (Salmeterol, fluticasone propionate)</v>
+      </c>
+      <c r="B334" s="1">
+        <v>2</v>
+      </c>
+      <c r="C334" s="1">
+        <v>654400</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="str">
+        <v>Somexwell (Esomeprazole 20mg</v>
+      </c>
+      <c r="B335" s="1">
+        <v>172</v>
+      </c>
+      <c r="C335" s="1">
+        <v>1513600</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="str">
+        <v>Somexwell (Esomeprazole 20mg</v>
+      </c>
+      <c r="B336" s="1">
+        <v>28</v>
+      </c>
+      <c r="C336" s="1">
+        <v>246400</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="str">
+        <v>Stadnolol (Atenolol 50mg)</v>
+      </c>
+      <c r="B337" s="1">
+        <v>31</v>
+      </c>
+      <c r="C337" s="1">
+        <v>25389</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="str">
+        <v>Stemvir (Tenofovir 300mg)</v>
+      </c>
+      <c r="B338" s="1">
+        <v>90</v>
+      </c>
+      <c r="C338" s="1">
+        <v>3465000</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B339" s="1">
+        <v>100</v>
+      </c>
+      <c r="C339" s="1">
+        <v>1089000</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B340" s="1">
+        <v>73</v>
+      </c>
+      <c r="C340" s="1">
+        <v>794970</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B341" s="1">
+        <v>31</v>
+      </c>
+      <c r="C341" s="1">
+        <v>337590</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B342" s="1">
+        <v>90</v>
+      </c>
+      <c r="C342" s="1">
+        <v>980100</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B343" s="1">
+        <v>136</v>
+      </c>
+      <c r="C343" s="1">
+        <v>1481040</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B344" s="1">
+        <v>1083</v>
+      </c>
+      <c r="C344" s="1">
+        <v>11793870</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B345" s="1">
+        <v>99</v>
+      </c>
+      <c r="C345" s="1">
+        <v>1078110</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B346" s="1">
+        <v>85</v>
+      </c>
+      <c r="C346" s="1">
+        <v>925650</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B347" s="1">
+        <v>128</v>
+      </c>
+      <c r="C347" s="1">
+        <v>1393920</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B348" s="1">
+        <v>210</v>
+      </c>
+      <c r="C348" s="1">
+        <v>2286900</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="str">
+        <v>Taginyl VN (Acetyl-DL-Leucine 500mg)</v>
+      </c>
+      <c r="B349" s="1">
+        <v>60</v>
+      </c>
+      <c r="C349" s="1">
+        <v>41400</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="str">
+        <v>Taginyl VN (Acetyl-DL-Leucine 500mg)</v>
+      </c>
+      <c r="B350" s="1">
+        <v>205</v>
+      </c>
+      <c r="C350" s="1">
+        <v>141450</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="str">
+        <v>Taginyl VN (Acetyl-DL-Leucine 500mg)</v>
+      </c>
+      <c r="B351" s="1">
+        <v>10</v>
+      </c>
+      <c r="C351" s="1">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="str">
+        <v>Taginyl VN (Acetyl-DL-Leucine 500mg)</v>
+      </c>
+      <c r="B352" s="1">
+        <v>20</v>
+      </c>
+      <c r="C352" s="1">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B353" s="1">
+        <v>30</v>
+      </c>
+      <c r="C353" s="1">
+        <v>120750</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B354" s="1">
+        <v>44</v>
+      </c>
+      <c r="C354" s="1">
+        <v>177100</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B355" s="1">
+        <v>45</v>
+      </c>
+      <c r="C355" s="1">
+        <v>181125</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B356" s="1">
+        <v>30</v>
+      </c>
+      <c r="C356" s="1">
+        <v>120750</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B357" s="1">
+        <v>14</v>
+      </c>
+      <c r="C357" s="1">
+        <v>56350</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B358" s="1">
+        <v>60</v>
+      </c>
+      <c r="C358" s="1">
+        <v>455400</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B359" s="1">
+        <v>74</v>
+      </c>
+      <c r="C359" s="1">
+        <v>561660</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B360" s="1">
+        <v>59</v>
+      </c>
+      <c r="C360" s="1">
+        <v>447810</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B361" s="1">
+        <v>75</v>
+      </c>
+      <c r="C361" s="1">
+        <v>569250</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B362" s="1">
+        <v>129</v>
+      </c>
+      <c r="C362" s="1">
+        <v>979110</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B363" s="1">
+        <v>20</v>
+      </c>
+      <c r="C363" s="1">
+        <v>151800</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B364" s="1">
+        <v>53</v>
+      </c>
+      <c r="C364" s="1">
+        <v>402270</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B365" s="1">
+        <v>30</v>
+      </c>
+      <c r="C365" s="1">
+        <v>227700</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B366" s="1">
+        <v>75</v>
+      </c>
+      <c r="C366" s="1">
+        <v>569250</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="str">
+        <v>Tetracyclin 500mg</v>
+      </c>
+      <c r="B367" s="1">
+        <v>196</v>
+      </c>
+      <c r="C367" s="1">
+        <v>191100</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="str">
+        <v>Tetracyclin 500mg</v>
+      </c>
+      <c r="B368" s="1">
+        <v>56</v>
+      </c>
+      <c r="C368" s="1">
+        <v>54600</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="str">
+        <v>Thyrozol 10mg (Thiamazole)</v>
+      </c>
+      <c r="B369" s="1">
+        <v>15</v>
+      </c>
+      <c r="C369" s="1">
+        <v>38550</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="str">
+        <v>Thyrozol 10mg (Thiamazole)</v>
+      </c>
+      <c r="B370" s="1">
+        <v>120</v>
+      </c>
+      <c r="C370" s="1">
+        <v>308400</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="str">
+        <v>Thyrozol 5mg (Thiamazole)</v>
+      </c>
+      <c r="B371" s="1">
+        <v>30</v>
+      </c>
+      <c r="C371" s="1">
+        <v>48300</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="str">
+        <v>Triglo (Fenofibrate 200mg)</v>
+      </c>
+      <c r="B372" s="1">
+        <v>21</v>
+      </c>
+      <c r="C372" s="1">
+        <v>72450</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="str">
+        <v>Triglo (Fenofibrate 200mg)</v>
+      </c>
+      <c r="B373" s="1">
+        <v>60</v>
+      </c>
+      <c r="C373" s="1">
+        <v>207000</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="str">
+        <v>Triglo (Fenofibrate 200mg)</v>
+      </c>
+      <c r="B374" s="1">
+        <v>45</v>
+      </c>
+      <c r="C374" s="1">
+        <v>155250</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="str">
+        <v>Triglo (Fenofibrate 200mg)</v>
+      </c>
+      <c r="B375" s="1">
+        <v>10</v>
+      </c>
+      <c r="C375" s="1">
+        <v>34500</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="str">
+        <v>Triglo (Fenofibrate 200mg)</v>
+      </c>
+      <c r="B376" s="1">
+        <v>68</v>
+      </c>
+      <c r="C376" s="1">
+        <v>234600</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="str">
+        <v>Triglo (Fenofibrate 200mg)</v>
+      </c>
+      <c r="B377" s="1">
+        <v>360</v>
+      </c>
+      <c r="C377" s="1">
+        <v>1242000</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="str">
+        <v>Triglo (Fenofibrate 200mg)</v>
+      </c>
+      <c r="B378" s="1">
+        <v>15</v>
+      </c>
+      <c r="C378" s="1">
+        <v>51750</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="str">
+        <v>Triglo (Fenofibrate 200mg)</v>
+      </c>
+      <c r="B379" s="1">
+        <v>54</v>
+      </c>
+      <c r="C379" s="1">
+        <v>186300</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="str">
+        <v>Triglo (Fenofibrate 200mg)</v>
+      </c>
+      <c r="B380" s="1">
+        <v>16</v>
+      </c>
+      <c r="C380" s="1">
+        <v>55200</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B381" s="1">
+        <v>60</v>
+      </c>
+      <c r="C381" s="1">
+        <v>117300</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B382" s="1">
+        <v>30</v>
+      </c>
+      <c r="C382" s="1">
+        <v>58650</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B383" s="1">
+        <v>124</v>
+      </c>
+      <c r="C383" s="1">
+        <v>242420</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B384" s="1">
+        <v>120</v>
+      </c>
+      <c r="C384" s="1">
+        <v>234600</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B385" s="1">
+        <v>245</v>
+      </c>
+      <c r="C385" s="1">
+        <v>478975</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B386" s="1">
+        <v>80</v>
+      </c>
+      <c r="C386" s="1">
+        <v>156400</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B387" s="1">
+        <v>90</v>
+      </c>
+      <c r="C387" s="1">
+        <v>175950</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="str">
+        <v>Ulcersep (Bismuth subsalicylat 262.5mg)</v>
+      </c>
+      <c r="B388" s="1">
+        <v>196</v>
+      </c>
+      <c r="C388" s="1">
+        <v>889840</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="str">
+        <v>Ulcersep (Bismuth subsalicylat 262.5mg)</v>
+      </c>
+      <c r="B389" s="1">
+        <v>56</v>
+      </c>
+      <c r="C389" s="1">
+        <v>254240</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="str">
+        <v>Upsa - C (Vitamin C 1000mg)</v>
+      </c>
+      <c r="B390" s="1">
+        <v>16</v>
+      </c>
+      <c r="C390" s="1">
+        <v>61280</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="str">
+        <v>Vastarel MR (Trimetazindine) 35mg</v>
+      </c>
+      <c r="B391" s="1">
+        <v>30</v>
+      </c>
+      <c r="C391" s="1">
+        <v>102600</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="str">
+        <v>Vastarel MR (Trimetazindine) 35mg</v>
+      </c>
+      <c r="B392" s="1">
+        <v>30</v>
+      </c>
+      <c r="C392" s="1">
+        <v>102600</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="str">
+        <v>Vastarel MR (Trimetazindine) 35mg</v>
+      </c>
+      <c r="B393" s="1">
+        <v>60</v>
+      </c>
+      <c r="C393" s="1">
+        <v>205200</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="str">
+        <v>Vastarel MR (Trimetazindine) 35mg</v>
+      </c>
+      <c r="B394" s="1">
+        <v>250</v>
+      </c>
+      <c r="C394" s="1">
+        <v>855000</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="str">
+        <v>Vastarel MR (Trimetazindine) 35mg</v>
+      </c>
+      <c r="B395" s="1">
+        <v>26</v>
+      </c>
+      <c r="C395" s="1">
+        <v>88920</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="str">
+        <v>Vastarel MR (Trimetazindine) 35mg</v>
+      </c>
+      <c r="B396" s="1">
+        <v>14</v>
+      </c>
+      <c r="C396" s="1">
+        <v>47880</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="str">
+        <v>Vastarel MR (Trimetazindine) 35mg</v>
+      </c>
+      <c r="B397" s="1">
+        <v>7</v>
+      </c>
+      <c r="C397" s="1">
+        <v>23940</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="str">
+        <v>Vastarel MR (Trimetazindine) 35mg</v>
+      </c>
+      <c r="B398" s="1">
+        <v>30</v>
+      </c>
+      <c r="C398" s="1">
+        <v>102600</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B399" s="1">
+        <v>20</v>
+      </c>
+      <c r="C399" s="1">
+        <v>360800</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B400" s="1">
+        <v>40</v>
+      </c>
+      <c r="C400" s="1">
+        <v>721600</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B401" s="1">
+        <v>56</v>
+      </c>
+      <c r="C401" s="1">
+        <v>1010240</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B402" s="1">
+        <v>262</v>
+      </c>
+      <c r="C402" s="1">
+        <v>4726480</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B403" s="1">
+        <v>26</v>
+      </c>
+      <c r="C403" s="1">
+        <v>469040</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B404" s="1">
+        <v>22</v>
+      </c>
+      <c r="C404" s="1">
+        <v>396880</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B405" s="1">
+        <v>34</v>
+      </c>
+      <c r="C405" s="1">
+        <v>613360</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B406" s="1">
+        <v>40</v>
+      </c>
+      <c r="C406" s="1">
+        <v>721600</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B407" s="1">
+        <v>40</v>
+      </c>
+      <c r="C407" s="1">
+        <v>721600</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B408" s="1">
+        <v>10</v>
+      </c>
+      <c r="C408" s="1">
+        <v>180400</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="str">
+        <v>Vigorito (Vildagliptin 50mg)</v>
+      </c>
+      <c r="B409" s="1">
+        <v>150</v>
+      </c>
+      <c r="C409" s="1">
+        <v>1287000</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="str">
+        <v>Vigorito (Vildagliptin 50mg)</v>
+      </c>
+      <c r="B410" s="1">
+        <v>15</v>
+      </c>
+      <c r="C410" s="1">
+        <v>128700</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="str">
+        <v>Vigorito (Vildagliptin 50mg)</v>
+      </c>
+      <c r="B411" s="1">
+        <v>30</v>
+      </c>
+      <c r="C411" s="1">
+        <v>257400</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B412" s="1">
+        <v>96</v>
+      </c>
+      <c r="C412" s="1">
+        <v>1795200</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B413" s="1">
+        <v>40</v>
+      </c>
+      <c r="C413" s="1">
+        <v>748000</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B414" s="1">
+        <v>28</v>
+      </c>
+      <c r="C414" s="1">
+        <v>523600</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B415" s="1">
+        <v>40</v>
+      </c>
+      <c r="C415" s="1">
+        <v>748000</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B416" s="1">
+        <v>20</v>
+      </c>
+      <c r="C416" s="1">
+        <v>374000</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B417" s="1">
+        <v>20</v>
+      </c>
+      <c r="C417" s="1">
+        <v>374000</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B418" s="1">
+        <v>20</v>
+      </c>
+      <c r="C418" s="1">
+        <v>374000</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="str">
+        <v>Vitamin C 500</v>
+      </c>
+      <c r="B419" s="1">
+        <v>30</v>
+      </c>
+      <c r="C419" s="1">
+        <v>9150</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="str">
+        <v>Vitamin Pp 500mg(Nicotinamide)</v>
+      </c>
+      <c r="B420" s="1">
+        <v>30</v>
+      </c>
+      <c r="C420" s="1">
+        <v>18300</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="str">
+        <v>Voltaren 1% Emulgel 20g</v>
+      </c>
+      <c r="B421" s="1">
+        <v>1</v>
+      </c>
+      <c r="C421" s="1">
+        <v>69500</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="str">
+        <v>Voltaren 1% Emulgel 20g</v>
+      </c>
+      <c r="B422" s="1">
+        <v>1</v>
+      </c>
+      <c r="C422" s="1">
+        <v>69500</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="str">
+        <v>Voltaren 1% Emulgel 20g</v>
+      </c>
+      <c r="B423" s="1">
+        <v>9</v>
+      </c>
+      <c r="C423" s="1">
+        <v>625500</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="str">
+        <v>Voltaren 1% Emulgel 20g</v>
+      </c>
+      <c r="B424" s="1">
+        <v>1</v>
+      </c>
+      <c r="C424" s="1">
+        <v>69500</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="str">
+        <v>Voltaren 1% Emulgel 20g</v>
+      </c>
+      <c r="B425" s="1">
+        <v>1</v>
+      </c>
+      <c r="C425" s="1">
+        <v>69500</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="str">
+        <v>Voltaren 1% Emulgel 20g</v>
+      </c>
+      <c r="B426" s="1">
+        <v>1</v>
+      </c>
+      <c r="C426" s="1">
+        <v>69500</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="str">
+        <v>Voltaren 1% Emulgel 20g</v>
+      </c>
+      <c r="B427" s="1">
+        <v>2</v>
+      </c>
+      <c r="C427" s="1">
+        <v>139000</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="str">
+        <v>Voltaren 1% Emulgel 20g</v>
+      </c>
+      <c r="B428" s="1">
+        <v>1</v>
+      </c>
+      <c r="C428" s="1">
+        <v>69500</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="str">
+        <v>Voltaren 1% Emulgel 20g</v>
+      </c>
+      <c r="B429" s="1">
+        <v>1</v>
+      </c>
+      <c r="C429" s="1">
+        <v>69500</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="str">
+        <v>Xymex-MPS (Fungal Diastase, Papain, Simethicone)</v>
+      </c>
+      <c r="B430" s="1">
+        <v>60</v>
+      </c>
+      <c r="C430" s="1">
+        <v>289800</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="str">
+        <v>Xymex-MPS (Fungal Diastase, Papain, Simethicone)</v>
+      </c>
+      <c r="B431" s="1">
+        <v>210</v>
+      </c>
+      <c r="C431" s="1">
+        <v>1014300</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="str">
+        <v>Xymex-MPS (Fungal Diastase, Papain, Simethicone)</v>
+      </c>
+      <c r="B432" s="1">
+        <v>540</v>
+      </c>
+      <c r="C432" s="1">
+        <v>2608200</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="str">
+        <v>Xymex-MPS (Fungal Diastase, Papain, Simethicone)</v>
+      </c>
+      <c r="B433" s="1">
+        <v>45</v>
+      </c>
+      <c r="C433" s="1">
+        <v>217350</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="str">
+        <v>Xymex-MPS (Fungal Diastase, Papain, Simethicone)</v>
+      </c>
+      <c r="B434" s="1">
+        <v>45</v>
+      </c>
+      <c r="C434" s="1">
+        <v>217350</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="str">
+        <v>Xymex-MPS (Fungal Diastase, Papain, Simethicone)</v>
+      </c>
+      <c r="B435" s="1">
+        <v>80</v>
+      </c>
+      <c r="C435" s="1">
+        <v>386400</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="str">
+        <v>Xymex-MPS (Fungal Diastase, Papain, Simethicone)</v>
+      </c>
+      <c r="B436" s="1">
+        <v>30</v>
+      </c>
+      <c r="C436" s="1">
+        <v>144900</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="str">
+        <v>Xymex-MPS (Fungal Diastase, Papain, Simethicone)</v>
+      </c>
+      <c r="B437" s="1">
+        <v>60</v>
+      </c>
+      <c r="C437" s="1">
+        <v>289800</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="str">
+        <v>Xymex-MPS (Fungal Diastase, Papain, Simethicone)</v>
+      </c>
+      <c r="B438" s="1">
+        <v>70</v>
+      </c>
+      <c r="C438" s="1">
+        <v>338100</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="str">
+        <v>Xymex-MPS (Fungal Diastase, Papain, Simethicone)</v>
+      </c>
+      <c r="B439" s="1">
+        <v>135</v>
+      </c>
+      <c r="C439" s="1">
+        <v>652050</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="str">
+        <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
+      </c>
+      <c r="B440" s="1">
+        <v>20</v>
+      </c>
+      <c r="C440" s="1">
+        <v>152300</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B118" s="1">
-        <v>47688</v>
-      </c>
-      <c r="C118" s="1">
-        <v>NaN</v>
+      <c r="B441" s="1">
+        <v>44244</v>
+      </c>
+      <c r="C441" s="1">
+        <v>266489062</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C118"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C441"/>
   </ignoredErrors>
 </worksheet>
 </file>